--- a/docs/rata-notes.xlsx
+++ b/docs/rata-notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.morales\Dropbox\dev\rata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E35CEF96-B4C1-4F75-B4E8-74495BB25C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E039EAB-5408-402E-A6B8-8A177642F05A}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E35CEF96-B4C1-4F75-B4E8-74495BB25C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34691546-4691-4B37-A59B-3423E9EC2570}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="360" windowWidth="20730" windowHeight="11280" tabRatio="499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>UTC</t>
   </si>
@@ -54,28 +54,31 @@
     <t>CLT (-4)</t>
   </si>
   <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>USAX</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
     <t>ASX</t>
   </si>
   <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>USAX</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>MA,IT</t>
+    <t>SSE</t>
   </si>
   <si>
     <t>1. EUR/USD (Euro/US Dollar)</t>
@@ -764,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -780,148 +783,148 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.97916666666666674</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="G4" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="H4" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="I4" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="J4" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="K4" s="3">
         <v>0.10416666666666666</v>
       </c>
-      <c r="H4" s="3">
+      <c r="L4" s="3">
         <v>0.125</v>
       </c>
-      <c r="I4" s="3">
+      <c r="M4" s="3">
         <v>0.14583333333333334</v>
       </c>
-      <c r="J4" s="3">
+      <c r="N4" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="3">
         <v>0.1875</v>
       </c>
-      <c r="L4" s="3">
+      <c r="P4" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="M4" s="3">
+      <c r="Q4" s="3">
         <v>0.22916666666666669</v>
       </c>
-      <c r="N4" s="3">
+      <c r="R4" s="3">
         <v>0.25</v>
       </c>
-      <c r="O4" s="3">
+      <c r="S4" s="3">
         <v>0.27083333333333331</v>
       </c>
-      <c r="P4" s="3">
+      <c r="T4" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="U4" s="3">
         <v>0.3125</v>
       </c>
-      <c r="R4" s="3">
+      <c r="V4" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="S4" s="3">
+      <c r="W4" s="3">
         <v>0.35416666666666663</v>
       </c>
-      <c r="T4" s="3">
+      <c r="X4" s="3">
         <v>0.375</v>
       </c>
-      <c r="U4" s="3">
+      <c r="Y4" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="V4" s="3">
+      <c r="Z4" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="W4" s="3">
+      <c r="AA4" s="3">
         <v>0.4375</v>
       </c>
-      <c r="X4" s="3">
+      <c r="AB4" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="AC4" s="3">
         <v>0.47916666666666663</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AD4" s="3">
         <v>0.5</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AE4" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AF4" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AG4" s="3">
         <v>0.5625</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AH4" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AI4" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AJ4" s="3">
         <v>0.625</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AK4" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AL4" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AM4" s="3">
         <v>0.6875</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AN4" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AO4" s="3">
         <v>0.72916666666666674</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AP4" s="3">
         <v>0.75</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AQ4" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AR4" s="3">
         <v>0.79166666666666663</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AS4" s="3">
         <v>0.8125</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AT4" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AU4" s="3">
         <v>0.85416666666666674</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AV4" s="3">
         <v>0.875</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AW4" s="3">
         <v>0.89583333333333337</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>0.97916666666666674</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -929,232 +932,239 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>0.85416666666666674</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>0.875</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>0.9375</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>0.97916666666666674</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>0.10416666666666666</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>0.125</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>0.14583333333333334</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>0.1875</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <v>0.20833333333333334</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <v>0.22916666666666669</v>
       </c>
-      <c r="V5" s="2">
+      <c r="X5" s="2">
         <v>0.25</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Y5" s="2">
         <v>0.27083333333333331</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Z5" s="2">
         <v>0.29166666666666669</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AA5" s="2">
         <v>0.3125</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AB5" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AC5" s="2">
         <v>0.35416666666666663</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AD5" s="2">
         <v>0.375</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AE5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AF5" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AG5" s="2">
         <v>0.4375</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AH5" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AI5" s="2">
         <v>0.47916666666666663</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AJ5" s="2">
         <v>0.5</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AK5" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AL5" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AM5" s="2">
         <v>0.5625</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AN5" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AO5" s="2">
         <v>0.60416666666666674</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AP5" s="2">
         <v>0.625</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AQ5" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AR5" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AS5" s="2">
         <v>0.6875</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AT5" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AU5" s="2">
         <v>0.72916666666666674</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AV5" s="2">
         <v>0.75</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AW5" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="AV5" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>0.8125</v>
-      </c>
     </row>
     <row r="6" spans="1:49" s="4" customFormat="1">
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6" t="s">
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
+      <c r="AK6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
-      <c r="AP6" s="7" t="s">
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AU6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="AV6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
     </row>
     <row r="7" spans="1:49">
-      <c r="A7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -1180,82 +1190,82 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1281,365 +1291,365 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
